--- a/data/trans_camb/P25_10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 4,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 7,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 2,19</t>
+          <t>-6,33; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,97</t>
+          <t>-10,29; 3,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,91</t>
+          <t>-5,54; 11,21</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 5,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 1,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 5,56</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-59,12%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,62%</t>
+          <t>-36,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>30,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-44,01%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,98; 391,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,10 +811,25 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 295,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,3</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -1,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -2,43</t>
+          <t>-25,5; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -0,08</t>
+          <t>-20,66; 9,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; -1,34</t>
+          <t>-9,81; 24,97</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 2,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; 4,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 11,22</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-53,45%</t>
+          <t>-53,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-46,57%</t>
+          <t>-28,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,94%</t>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-43,91%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-35,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,2; -3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -8,13</t>
+          <t>-84,84; 21,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 3,76</t>
+          <t>-72,73; 94,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,37; -7,5</t>
+          <t>-37,44; 187,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-80,25; 54,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-82,83; 73,56</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-57,99; 156,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-5,39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,46</t>
+          <t>-8,82; 5,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,27</t>
+          <t>-10,07; 4,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 7,82</t>
+          <t>-6,75; 9,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 1,91</t>
+          <t>-13,39; 7,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,03</t>
+          <t>-17,6; 2,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 1,74</t>
+          <t>-12,34; 10,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 4,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 1,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 6,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,07%</t>
+          <t>-30,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>-39,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>-13,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,12%</t>
+          <t>-31,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,36%</t>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-17,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-34,77%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-7,25%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 326,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; 325,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 41,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,92; 11,23</t>
+          <t>-48,74; 45,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 36,61</t>
+          <t>-64,09; 14,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 18,37</t>
+          <t>-45,71; 64,44</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,49; 44,95</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,55; 21,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-44,34; 60,89</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-5,49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,35</t>
+          <t>-10,25; 6,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,32</t>
+          <t>-8,38; 9,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 3,41</t>
+          <t>-1,52; 18,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 2,82</t>
+          <t>-21,6; 4,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 3,66</t>
+          <t>-24,19; 1,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,19</t>
+          <t>-17,93; 8,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,58; 2,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 2,71</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 9,76</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73,63%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>102,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,44%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-14,47%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-24,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-23,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 230,76</t>
+          <t>-77,57; 184,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 309,04</t>
+          <t>-72,21; 210,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 12,66</t>
+          <t>-23,38; 369,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 11,25</t>
+          <t>-52,05; 15,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 21,79</t>
+          <t>-54,36; 5,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 24,2</t>
+          <t>-42,25; 30,86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-49,35; 13,05</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-48,35; 14,62</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 51,86</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>16,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 7,85</t>
+          <t>-8,0; 11,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,11</t>
+          <t>-8,98; 9,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 20,13</t>
+          <t>-8,56; 10,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 18,21</t>
+          <t>-6,91; 25,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 11,76</t>
+          <t>-5,55; 25,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 11,2</t>
+          <t>-1,48; 32,74</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 14,37</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 13,55</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 19,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>88,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>69,34%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 180,33</t>
+          <t>-68,06; 369,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,04; 193,43</t>
+          <t>-72,07; 281,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 144,67</t>
+          <t>-73,28; 326,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 120,0</t>
+          <t>-31,16; 215,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 112,99</t>
+          <t>-26,3; 220,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 110,4</t>
+          <t>-8,65; 287,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-24,31; 164,16</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-23,25; 148,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 209,21</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-5,39</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,51</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 8,64</t>
+          <t>-26,72; 5,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 4,34</t>
+          <t>-24,85; 6,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 3,51</t>
+          <t>-12,1; 23,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 2,65</t>
+          <t>-22,19; 20,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 2,25</t>
+          <t>-27,77; 15,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 1,55</t>
+          <t>-20,32; 26,36</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-19,55; 9,12</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; 6,06</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 22,05</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-18,42%</t>
+          <t>-55,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-42,09%</t>
+          <t>-44,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-27,47%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-28,83%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,93%</t>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-15,25%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-20,47%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 103,13</t>
+          <t>-100,0; 107,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 70,47</t>
+          <t>-88,45; 96,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 9,97</t>
+          <t>-52,21; 238,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,12; 7,6</t>
+          <t>-38,65; 54,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 8,89</t>
+          <t>-48,41; 43,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 6,01</t>
+          <t>-34,29; 69,53</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-46,2; 32,49</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-52,09; 20,78</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 79,99</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,1</t>
+          <t>-4,76; 2,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,75</t>
+          <t>-5,11; 1,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -0,26</t>
+          <t>-1,65; 6,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,67</t>
+          <t>-9,38; 2,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,07</t>
+          <t>-10,79; 0,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -1,01</t>
+          <t>-3,06; 10,51</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 1,0</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 0,1</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,99</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-22,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>-13,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-22,55%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 47,61</t>
+          <t>-56,72; 46,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 62,95</t>
+          <t>-59,26; 44,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,9; -0,75</t>
+          <t>-22,3; 140,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -6,95</t>
+          <t>-32,35; 10,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 0,46</t>
+          <t>-37,93; 3,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -6,83</t>
+          <t>-11,24; 46,88</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-34,1; 5,45</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 0,78</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 46,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
